--- a/pythonProject/system_recommendation.xlsx
+++ b/pythonProject/system_recommendation.xlsx
@@ -359,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,6 +433,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
